--- a/الجائزة/تقاييم/تطبيقات.xlsx
+++ b/الجائزة/تقاييم/تطبيقات.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\atmattal3mliat\تقاييم\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\atmattal3mliat\الجائزة\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="النتائج" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -850,28 +850,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,38 +895,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,19 +940,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,39 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,15 +1334,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257050</xdr:colOff>
+      <xdr:colOff>965710</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>986522</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620762</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>365677</xdr:rowOff>
+      <xdr:rowOff>396157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,7 +1371,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9985233028" y="9525"/>
+          <a:off x="9984718678" y="40005"/>
           <a:ext cx="729472" cy="546652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1389,8 +1389,8 @@
       <xdr:rowOff>23254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>735240</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64680</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>384503</xdr:rowOff>
     </xdr:to>
@@ -1421,7 +1421,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="0" y="299479"/>
+          <a:off x="9992239440" y="23254"/>
           <a:ext cx="735240" cy="551749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1922,74 +1922,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="21.9" customHeight="1">
@@ -2013,321 +2013,321 @@
       <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="50" t="s">
         <v>100</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="21.9" customHeight="1">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="21.9" customHeight="1">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="21.9" customHeight="1">
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:11" ht="21.9" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="21.9" customHeight="1">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="21.9" customHeight="1">
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="21.9" customHeight="1">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="21.9" customHeight="1">
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A27" s="55">
+      <c r="A27" s="56">
         <v>10</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="56">
         <v>9</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="56">
         <v>8</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="56">
         <v>7</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="56">
         <v>6</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="56">
         <v>5</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="56">
         <v>4</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="56">
         <v>3</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="56">
         <v>2</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="21.9" customHeight="1"/>
     <row r="30" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A19:J21"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:J31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:J5"/>
     <mergeCell ref="A24:J26"/>
@@ -2344,11 +2344,11 @@
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A9:J11"/>
     <mergeCell ref="A14:J16"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:J31"/>
+    <mergeCell ref="A19:J21"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2377,81 +2377,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18">
@@ -2495,10 +2495,10 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1">
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2512,10 +2512,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="33.6">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
@@ -2531,16 +2531,16 @@
       <c r="G10" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68" t="s">
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:17" ht="24.9" customHeight="1">
       <c r="A11" s="46" t="s">
@@ -2563,16 +2563,16 @@
       <c r="G11" s="49">
         <v>120</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="63">
         <v>43836</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63">
         <v>43831</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="51">
         <v>153</v>
       </c>
@@ -2598,16 +2598,16 @@
       <c r="G12" s="49">
         <v>180</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="67">
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="63">
         <v>43811</v>
       </c>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="51">
         <v>219</v>
       </c>
@@ -2633,16 +2633,16 @@
       <c r="G13" s="49">
         <v>150</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="63">
         <v>44623</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="67">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="63">
         <v>44384</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="52" t="s">
         <v>94</v>
       </c>
@@ -2667,16 +2667,16 @@
       <c r="G14" s="49">
         <v>120</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="63">
         <v>44655</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="51">
         <v>109</v>
       </c>
@@ -2702,16 +2702,16 @@
       <c r="G15" s="49">
         <v>120</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="63">
         <v>43781</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="67">
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="63">
         <v>43590</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="53">
         <v>221</v>
       </c>
@@ -2736,16 +2736,16 @@
       <c r="G16" s="49">
         <v>150</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="53">
         <v>174</v>
       </c>
@@ -2763,44 +2763,44 @@
     </row>
     <row r="18" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C18" s="35"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C19" s="35"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="2:12" ht="17.100000000000001" customHeight="1">
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B21" s="25" t="s">
@@ -2818,32 +2818,32 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
       <c r="B24" s="30"/>
@@ -2981,6 +2981,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="F18:L20"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A10:B10"/>
@@ -2990,20 +3004,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="A2:M3"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B22:L23"/>
-    <mergeCell ref="F18:L20"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3015,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3032,15 +3032,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -3048,13 +3048,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3062,40 +3062,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -3106,152 +3106,164 @@
       <c r="A6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="77" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:12" ht="81" customHeight="1">
       <c r="A8" s="39">
         <v>2</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="73" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1">
       <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="73" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="73"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1">
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="72" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:12" ht="61.5" customHeight="1">
       <c r="A11" s="39">
         <v>5</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="72" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="73"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:12" ht="58.5" customHeight="1">
       <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="72" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="73"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="81" customHeight="1">
       <c r="A13" s="39">
         <v>7</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:12" s="43" customFormat="1" ht="84.75" customHeight="1">
       <c r="A14" s="39">
         <v>8</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="73"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J6:L6"/>
@@ -3263,18 +3275,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3285,325 +3285,330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="10.5" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="30"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="38.25" customHeight="1">
+      <c r="B6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.9" customHeight="1">
+      <c r="B7" s="40">
+        <v>1</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.9" customHeight="1">
+      <c r="B8" s="40">
+        <v>2</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45.75" customHeight="1">
+      <c r="B9" s="39">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A7" s="40">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="39">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45.75" customHeight="1">
+      <c r="B10" s="39">
+        <v>4</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="39">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.9" customHeight="1">
+      <c r="B11" s="40">
+        <v>5</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="39">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40.5" customHeight="1">
+      <c r="B12" s="39">
+        <v>6</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="39">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.9" customHeight="1">
+      <c r="B14" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A8" s="40">
+      <c r="C16" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A9" s="39">
-        <v>3</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="39">
-        <v>84.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A10" s="39">
-        <v>4</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="39">
-        <v>84.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A11" s="40">
-        <v>5</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="39">
-        <v>84.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A12" s="39">
-        <v>6</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="39">
-        <v>84.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.9" customHeight="1">
-      <c r="A14" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="40">
-        <v>1</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="40">
-        <v>2</v>
-      </c>
-      <c r="B17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="40">
+      <c r="G17" s="40">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="81">
-        <f>F17+F16+F12+F11+F10+F9</f>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="78">
+        <f>G17+G16+G12+G11+G10+G9</f>
         <v>387.96000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="81"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A21" s="41"/>
+    <row r="20" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="78"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" customHeight="1">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B19:F20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3631,54 +3636,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3688,9 +3693,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3718,25 +3723,25 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1">
@@ -3746,18 +3751,18 @@
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="86" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -3775,15 +3780,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="95">
+      <c r="H10" s="87"/>
+      <c r="I10" s="89">
         <v>35000</v>
       </c>
     </row>
@@ -3794,15 +3799,15 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="95"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -3811,15 +3816,15 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="95"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="89"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -3828,14 +3833,14 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
@@ -3847,14 +3852,14 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="94"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
@@ -3866,15 +3871,15 @@
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -3883,15 +3888,15 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="89" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="15"/>
@@ -3905,17 +3910,17 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -3924,18 +3929,18 @@
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91" t="s">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="86" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -3949,15 +3954,15 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="95">
+      <c r="H20" s="87"/>
+      <c r="I20" s="89">
         <v>75000</v>
       </c>
     </row>
@@ -3968,15 +3973,15 @@
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -3985,15 +3990,15 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -4002,14 +4007,14 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
@@ -4021,14 +4026,14 @@
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="94"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
@@ -4040,15 +4045,15 @@
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88" t="s">
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
@@ -4057,15 +4062,15 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="89" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="15"/>
@@ -4079,17 +4084,17 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="8" t="s">
@@ -4098,18 +4103,18 @@
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91" t="s">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="91"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="86" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -4123,15 +4128,15 @@
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="95">
+      <c r="H30" s="87"/>
+      <c r="I30" s="89">
         <v>84000</v>
       </c>
     </row>
@@ -4142,15 +4147,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="93"/>
-      <c r="I31" s="95"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="89"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="5" t="s">
@@ -4159,15 +4164,15 @@
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="93"/>
-      <c r="I32" s="95"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5" t="s">
@@ -4176,14 +4181,14 @@
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="93"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
@@ -4195,14 +4200,14 @@
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="94"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
@@ -4214,15 +4219,15 @@
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="5" t="s">
@@ -4231,49 +4236,88 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="89" t="s">
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="85" t="s">
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E9:F9"/>
@@ -4290,52 +4334,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4364,77 +4369,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="B6" s="7"/>
@@ -4452,8 +4457,8 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="103" t="s">
         <v>37</v>
       </c>
@@ -4465,13 +4470,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
@@ -4741,38 +4746,38 @@
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="B23" s="20"/>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="B24" s="20"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:11" ht="9.75" customHeight="1">
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="25" t="s">
@@ -4790,32 +4795,32 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="30"/>
@@ -4858,6 +4863,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I7:J7"/>
@@ -4869,12 +4880,6 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A2:K3"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="E23:I25"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4887,7 +4892,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
